--- a/user_stories/04_page_de_chat/Supprimer_un_contact_chat.xlsx
+++ b/user_stories/04_page_de_chat/Supprimer_un_contact_chat.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10111"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10212"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jbochard/Code/Openclassrooms/Projet/P03_Learnathome/user_stories/04_page_de_chat/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{884CA5E0-BF37-3647-AAD1-E14EF16B12F6}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35BC460D-A6C6-C044-8FB9-3BE357380799}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1500" windowWidth="28040" windowHeight="17440" xr2:uid="{5C57C3C8-854F-AC4C-9035-FA231C08B635}"/>
+    <workbookView xWindow="1520" yWindow="560" windowWidth="28040" windowHeight="17440" xr2:uid="{5C57C3C8-854F-AC4C-9035-FA231C08B635}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -30,9 +30,6 @@
     <t>En tant que</t>
   </si>
   <si>
-    <t>utilisateur connecté et sur la page de chat</t>
-  </si>
-  <si>
     <t>Je souhaite</t>
   </si>
   <si>
@@ -51,9 +48,6 @@
     <t>Quand je</t>
   </si>
   <si>
-    <t>clique sur un boutton</t>
-  </si>
-  <si>
     <t>Alors</t>
   </si>
   <si>
@@ -69,7 +63,13 @@
     <t>L'utilisateur supprime un contact afin de ne plus l'avoir dans sa liste de contact</t>
   </si>
   <si>
-    <t>je peux supprimer un contact</t>
+    <t>utilisateur connecté</t>
+  </si>
+  <si>
+    <t>le contact est supprimé</t>
+  </si>
+  <si>
+    <t>clique sur la photo de profil d'un utilisateur et que je clique sur "supprimer le contact"</t>
   </si>
 </sst>
 </file>
@@ -243,41 +243,41 @@
   </cellStyleXfs>
   <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -595,8 +595,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F88F08BC-2952-924B-805B-4489D15E9629}">
   <dimension ref="B1:C11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C14" sqref="C14"/>
+    <sheetView tabSelected="1" zoomScale="130" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -606,70 +606,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="2:3" ht="17" thickBot="1" x14ac:dyDescent="0.25"/>
-    <row r="2" spans="2:3" ht="21" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B2" s="1" t="s">
+    <row r="2" spans="2:3" ht="24" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B2" s="11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C2" s="12"/>
+    </row>
+    <row r="3" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B5" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="6" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="2"/>
-    </row>
-    <row r="3" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B3" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B4" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="6" t="s">
+    </row>
+    <row r="6" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B6" s="7"/>
+      <c r="C6" s="8"/>
+    </row>
+    <row r="7" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B7" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C7" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="5" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B5" s="7" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5" s="8" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B6" s="9"/>
-      <c r="C6" s="10"/>
-    </row>
-    <row r="7" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B7" s="3" t="s">
+    <row r="8" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B8" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="4" t="s">
+      <c r="C8" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" ht="24" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="B9" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" ht="24" customHeight="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="B10" s="9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="10" t="s">
         <v>13</v>
-      </c>
-    </row>
-    <row r="8" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B8" s="5" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="2:3" ht="19" x14ac:dyDescent="0.2">
-      <c r="B9" s="5" t="s">
-        <v>7</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="10" spans="2:3" ht="20" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B10" s="11" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="12" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="11" spans="2:3" ht="17" thickTop="1" x14ac:dyDescent="0.2"/>
